--- a/VocationEvaluationMatrix_v1.xlsx
+++ b/VocationEvaluationMatrix_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petrusk\Desktop\tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB9EC43F-A8C9-4B62-8A57-6B2FBD08F865}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8C3E01-1729-4B2B-8F1E-1B7F16489601}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{68A18233-E500-41A9-8445-D8FE700CC7BE}"/>
   </bookViews>
@@ -45,12 +45,6 @@
     <t>Priority</t>
   </si>
   <si>
-    <t>MRI Software</t>
-  </si>
-  <si>
-    <t>IQBusiness</t>
-  </si>
-  <si>
     <t>Flexible Working Hours</t>
   </si>
   <si>
@@ -94,6 +88,12 @@
   </si>
   <si>
     <t>General Culture Impression (including Trust)</t>
+  </si>
+  <si>
+    <t>current vocation/company</t>
+  </si>
+  <si>
+    <t>next vocation/company</t>
   </si>
 </sst>
 </file>
@@ -292,15 +292,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -337,6 +328,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -676,7 +676,7 @@
   <dimension ref="B1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,514 +686,514 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="7"/>
+      <c r="B1" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="22"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="7"/>
+      <c r="F1" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
     </row>
     <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="9" t="s">
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="10" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="14"/>
+      <c r="B3" s="11"/>
       <c r="C3" s="2">
         <v>2</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="15">
         <f>B3*(C3/$C$21)</f>
         <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="18">
+        <v>4</v>
+      </c>
+      <c r="F3" s="15">
         <f>H3*(G3/$G$21)</f>
         <v>0</v>
       </c>
       <c r="G3" s="2">
         <v>2</v>
       </c>
-      <c r="H3" s="16"/>
+      <c r="H3" s="13"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="14"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="2">
         <v>7</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="15">
         <f t="shared" ref="D4:D20" si="0">B4*(C4/$C$21)</f>
         <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="18">
+        <v>5</v>
+      </c>
+      <c r="F4" s="15">
         <f t="shared" ref="F4:F20" si="1">H4*(G4/$G$21)</f>
         <v>0</v>
       </c>
       <c r="G4" s="2">
         <v>7</v>
       </c>
-      <c r="H4" s="16"/>
+      <c r="H4" s="13"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="14"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="2">
         <v>6</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="18">
+        <v>6</v>
+      </c>
+      <c r="F5" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G5" s="2">
         <v>6</v>
       </c>
-      <c r="H5" s="16"/>
+      <c r="H5" s="13"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="14"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="2">
         <v>6</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="18">
+        <v>14</v>
+      </c>
+      <c r="F6" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G6" s="2">
         <v>6</v>
       </c>
-      <c r="H6" s="16"/>
+      <c r="H6" s="13"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="14"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="2">
         <v>8</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="18">
+        <v>17</v>
+      </c>
+      <c r="F7" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G7" s="2">
         <v>8</v>
       </c>
-      <c r="H7" s="16"/>
+      <c r="H7" s="13"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="14"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="2">
         <v>6</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="18">
+        <v>7</v>
+      </c>
+      <c r="F8" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G8" s="2">
         <v>6</v>
       </c>
-      <c r="H8" s="16"/>
+      <c r="H8" s="13"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="14"/>
+      <c r="B9" s="11"/>
       <c r="C9" s="2">
         <v>8</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="18">
+        <v>16</v>
+      </c>
+      <c r="F9" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G9" s="2">
         <v>8</v>
       </c>
-      <c r="H9" s="16"/>
+      <c r="H9" s="13"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="14"/>
+      <c r="B10" s="11"/>
       <c r="C10" s="2">
         <v>4</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="18">
+        <v>8</v>
+      </c>
+      <c r="F10" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G10" s="2">
         <v>4</v>
       </c>
-      <c r="H10" s="16"/>
+      <c r="H10" s="13"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="14"/>
+      <c r="B11" s="11"/>
       <c r="C11" s="2">
         <v>12</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="18">
+        <v>9</v>
+      </c>
+      <c r="F11" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G11" s="2">
         <v>12</v>
       </c>
-      <c r="H11" s="16"/>
+      <c r="H11" s="13"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="14"/>
+      <c r="B12" s="11"/>
       <c r="C12" s="2">
         <v>6</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="18">
+        <v>10</v>
+      </c>
+      <c r="F12" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G12" s="2">
         <v>6</v>
       </c>
-      <c r="H12" s="16"/>
+      <c r="H12" s="13"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="14"/>
+      <c r="B13" s="11"/>
       <c r="C13" s="2">
         <v>4</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="18">
+        <v>11</v>
+      </c>
+      <c r="F13" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G13" s="2">
         <v>4</v>
       </c>
-      <c r="H13" s="16"/>
+      <c r="H13" s="13"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="14"/>
+      <c r="B14" s="11"/>
       <c r="C14" s="2">
         <v>4</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="18">
+        <v>12</v>
+      </c>
+      <c r="F14" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G14" s="2">
         <v>4</v>
       </c>
-      <c r="H14" s="16"/>
+      <c r="H14" s="13"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="14"/>
+      <c r="B15" s="11"/>
       <c r="C15" s="2">
         <v>6</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="18">
+        <v>13</v>
+      </c>
+      <c r="F15" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G15" s="2">
         <v>6</v>
       </c>
-      <c r="H15" s="16"/>
+      <c r="H15" s="13"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="14"/>
+      <c r="B16" s="11"/>
       <c r="C16" s="2">
         <v>2</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="18">
+        <v>15</v>
+      </c>
+      <c r="F16" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G16" s="2">
         <v>2</v>
       </c>
-      <c r="H16" s="16"/>
+      <c r="H16" s="13"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="14"/>
+      <c r="B17" s="11"/>
       <c r="C17" s="2">
         <v>6</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="18">
+        <v>18</v>
+      </c>
+      <c r="F17" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G17" s="2">
         <v>6</v>
       </c>
-      <c r="H17" s="16"/>
+      <c r="H17" s="13"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="14"/>
-      <c r="C18" s="18">
-        <v>0</v>
-      </c>
-      <c r="D18" s="18">
+      <c r="B18" s="11"/>
+      <c r="C18" s="15">
+        <v>0</v>
+      </c>
+      <c r="D18" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E18" s="1"/>
-      <c r="F18" s="18">
+      <c r="F18" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G18" s="2">
         <v>0</v>
       </c>
-      <c r="H18" s="16"/>
+      <c r="H18" s="13"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="14"/>
+      <c r="B19" s="11"/>
       <c r="C19" s="2">
         <v>0</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E19" s="1"/>
-      <c r="F19" s="18">
+      <c r="F19" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G19" s="2">
         <v>0</v>
       </c>
-      <c r="H19" s="16"/>
+      <c r="H19" s="13"/>
     </row>
     <row r="20" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="14"/>
+      <c r="B20" s="11"/>
       <c r="C20" s="2">
         <v>0</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E20" s="1"/>
-      <c r="F20" s="18">
+      <c r="F20" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G20" s="2">
         <v>0</v>
       </c>
-      <c r="H20" s="16"/>
+      <c r="H20" s="13"/>
     </row>
     <row r="21" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="19"/>
-      <c r="C21" s="20">
+      <c r="B21" s="16"/>
+      <c r="C21" s="17">
         <f>SUM(C3:C20)</f>
         <v>87</v>
       </c>
-      <c r="D21" s="20">
+      <c r="D21" s="17">
         <f>SUM(D3:D20)</f>
         <v>0</v>
       </c>
-      <c r="E21" s="21"/>
-      <c r="F21" s="20">
+      <c r="E21" s="18"/>
+      <c r="F21" s="17">
         <f>SUM(F3:F20)</f>
         <v>0</v>
       </c>
-      <c r="G21" s="20">
+      <c r="G21" s="17">
         <f>SUM(G3:G20)</f>
         <v>87</v>
       </c>
-      <c r="H21" s="22"/>
+      <c r="H21" s="19"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="14"/>
+      <c r="B22" s="11"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="17"/>
+      <c r="D22" s="14"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="14"/>
+      <c r="B23" s="11"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="17"/>
+      <c r="D23" s="14"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="14"/>
+      <c r="B24" s="11"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="17"/>
+      <c r="D24" s="14"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="14"/>
+      <c r="B25" s="11"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="17"/>
+      <c r="D25" s="14"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="14"/>
+      <c r="B26" s="11"/>
       <c r="C26" s="2"/>
-      <c r="D26" s="17"/>
+      <c r="D26" s="14"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="14"/>
+      <c r="B27" s="11"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="17"/>
+      <c r="D27" s="14"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="14"/>
+      <c r="B28" s="11"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="17"/>
+      <c r="D28" s="14"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="14"/>
+      <c r="B29" s="11"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="17"/>
+      <c r="D29" s="14"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="14"/>
+      <c r="B30" s="11"/>
       <c r="C30" s="2"/>
-      <c r="D30" s="17"/>
+      <c r="D30" s="14"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/VocationEvaluationMatrix_v1.xlsx
+++ b/VocationEvaluationMatrix_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petrusk\Desktop\tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8C3E01-1729-4B2B-8F1E-1B7F16489601}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC878C5-F7AA-4651-B018-443B73B57071}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{68A18233-E500-41A9-8445-D8FE700CC7BE}"/>
+    <workbookView xWindow="-28920" yWindow="-180" windowWidth="29040" windowHeight="15840" xr2:uid="{68A18233-E500-41A9-8445-D8FE700CC7BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>Points</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>next vocation/company</t>
+  </si>
+  <si>
+    <t>Agile/Scrum Methodology</t>
   </si>
 </sst>
 </file>
@@ -676,7 +679,7 @@
   <dimension ref="B1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1039,19 +1042,21 @@
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="11"/>
       <c r="C18" s="15">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D18" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="F18" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G18" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H18" s="13"/>
     </row>
@@ -1097,7 +1102,7 @@
       <c r="B21" s="16"/>
       <c r="C21" s="17">
         <f>SUM(C3:C20)</f>
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="D21" s="17">
         <f>SUM(D3:D20)</f>
@@ -1110,7 +1115,7 @@
       </c>
       <c r="G21" s="17">
         <f>SUM(G3:G20)</f>
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="H21" s="19"/>
     </row>

--- a/VocationEvaluationMatrix_v1.xlsx
+++ b/VocationEvaluationMatrix_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petrusk\Desktop\tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC878C5-F7AA-4651-B018-443B73B57071}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC29616C-2AA7-489A-B03C-9C9B2A6D4832}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-180" windowWidth="29040" windowHeight="15840" xr2:uid="{68A18233-E500-41A9-8445-D8FE700CC7BE}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>Points</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>Agile/Scrum Methodology</t>
+  </si>
+  <si>
+    <t>Transferable Skills</t>
   </si>
 </sst>
 </file>
@@ -679,7 +682,7 @@
   <dimension ref="B1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1063,19 +1066,21 @@
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="11"/>
       <c r="C19" s="2">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D19" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F19" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G19" s="2">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H19" s="13"/>
     </row>
@@ -1102,7 +1107,7 @@
       <c r="B21" s="16"/>
       <c r="C21" s="17">
         <f>SUM(C3:C20)</f>
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="D21" s="17">
         <f>SUM(D3:D20)</f>
@@ -1115,7 +1120,7 @@
       </c>
       <c r="G21" s="17">
         <f>SUM(G3:G20)</f>
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="H21" s="19"/>
     </row>
